--- a/Unemployment Claims.xlsx
+++ b/Unemployment Claims.xlsx
@@ -55,7 +55,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E3073"/>
+  <dimension ref="A1:E3074"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -58446,10 +58446,29 @@
         <v>-0.02631578947368421</v>
       </c>
       <c r="D3073" t="n">
-        <v>1960000.0</v>
+        <v>1943000.0</v>
       </c>
       <c r="E3073" t="n">
-        <v>0.0035842293906810036</v>
+        <v>-0.005120327700972862</v>
+      </c>
+    </row>
+    <row r="3074">
+      <c r="A3074" t="inlineStr">
+        <is>
+          <t>2025-11-22</t>
+        </is>
+      </c>
+      <c r="B3074" t="n">
+        <v>218000.0</v>
+      </c>
+      <c r="C3074" t="n">
+        <v>-0.018018018018018018</v>
+      </c>
+      <c r="D3074" t="n">
+        <v>1939000.0</v>
+      </c>
+      <c r="E3074" t="n">
+        <v>-0.002058672156459084</v>
       </c>
     </row>
   </sheetData>

--- a/Unemployment Claims.xlsx
+++ b/Unemployment Claims.xlsx
@@ -55,7 +55,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F3075"/>
+  <dimension ref="A1:F3076"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -67664,13 +67664,13 @@
         <v>-0.02631578947368421</v>
       </c>
       <c r="D3073" t="n">
-        <v>1943000.0</v>
+        <v>1944000.0</v>
       </c>
       <c r="E3073" t="n">
-        <v>-0.005120327700972862</v>
+        <v>-0.004608294930875576</v>
       </c>
       <c r="F3073" t="n">
-        <v>2165000.0</v>
+        <v>2166000.0</v>
       </c>
     </row>
     <row r="3074">
@@ -67680,19 +67680,19 @@
         </is>
       </c>
       <c r="B3074" t="n">
-        <v>218000.0</v>
+        <v>217000.0</v>
       </c>
       <c r="C3074" t="n">
-        <v>-0.018018018018018018</v>
+        <v>-0.02252252252252252</v>
       </c>
       <c r="D3074" t="n">
-        <v>1939000.0</v>
+        <v>1937000.0</v>
       </c>
       <c r="E3074" t="n">
-        <v>-0.002058672156459084</v>
+        <v>-0.00360082304526749</v>
       </c>
       <c r="F3074" t="n">
-        <v>2157000.0</v>
+        <v>2154000.0</v>
       </c>
     </row>
     <row r="3075">
@@ -67702,14 +67702,36 @@
         </is>
       </c>
       <c r="B3075" t="n">
-        <v>191000.0</v>
+        <v>192000.0</v>
       </c>
       <c r="C3075" t="n">
-        <v>-0.12385321100917432</v>
-      </c>
-      <c r="D3075"/>
-      <c r="E3075"/>
-      <c r="F3075"/>
+        <v>-0.1152073732718894</v>
+      </c>
+      <c r="D3075" t="n">
+        <v>1838000.0</v>
+      </c>
+      <c r="E3075" t="n">
+        <v>-0.05110996386164171</v>
+      </c>
+      <c r="F3075" t="n">
+        <v>2030000.0</v>
+      </c>
+    </row>
+    <row r="3076">
+      <c r="A3076" t="inlineStr">
+        <is>
+          <t>2025-12-06</t>
+        </is>
+      </c>
+      <c r="B3076" t="n">
+        <v>236000.0</v>
+      </c>
+      <c r="C3076" t="n">
+        <v>0.22916666666666666</v>
+      </c>
+      <c r="D3076"/>
+      <c r="E3076"/>
+      <c r="F3076"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/Unemployment Claims.xlsx
+++ b/Unemployment Claims.xlsx
@@ -55,7 +55,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F3076"/>
+  <dimension ref="A1:F3079"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -67708,13 +67708,13 @@
         <v>-0.1152073732718894</v>
       </c>
       <c r="D3075" t="n">
-        <v>1838000.0</v>
+        <v>1830000.0</v>
       </c>
       <c r="E3075" t="n">
-        <v>-0.05110996386164171</v>
+        <v>-0.055240061951471346</v>
       </c>
       <c r="F3075" t="n">
-        <v>2030000.0</v>
+        <v>2022000.0</v>
       </c>
     </row>
     <row r="3076">
@@ -67724,14 +67724,80 @@
         </is>
       </c>
       <c r="B3076" t="n">
-        <v>236000.0</v>
+        <v>237000.0</v>
       </c>
       <c r="C3076" t="n">
-        <v>0.22916666666666666</v>
-      </c>
-      <c r="D3076"/>
-      <c r="E3076"/>
-      <c r="F3076"/>
+        <v>0.234375</v>
+      </c>
+      <c r="D3076" t="n">
+        <v>1885000.0</v>
+      </c>
+      <c r="E3076" t="n">
+        <v>0.030054644808743168</v>
+      </c>
+      <c r="F3076" t="n">
+        <v>2122000.0</v>
+      </c>
+    </row>
+    <row r="3077">
+      <c r="A3077" t="inlineStr">
+        <is>
+          <t>2025-12-13</t>
+        </is>
+      </c>
+      <c r="B3077" t="n">
+        <v>224000.0</v>
+      </c>
+      <c r="C3077" t="n">
+        <v>-0.05485232067510549</v>
+      </c>
+      <c r="D3077" t="n">
+        <v>1913000.0</v>
+      </c>
+      <c r="E3077" t="n">
+        <v>0.014854111405835544</v>
+      </c>
+      <c r="F3077" t="n">
+        <v>2137000.0</v>
+      </c>
+    </row>
+    <row r="3078">
+      <c r="A3078" t="inlineStr">
+        <is>
+          <t>2025-12-20</t>
+        </is>
+      </c>
+      <c r="B3078" t="n">
+        <v>215000.0</v>
+      </c>
+      <c r="C3078" t="n">
+        <v>-0.04017857142857143</v>
+      </c>
+      <c r="D3078" t="n">
+        <v>1866000.0</v>
+      </c>
+      <c r="E3078" t="n">
+        <v>-0.024568740198640877</v>
+      </c>
+      <c r="F3078" t="n">
+        <v>2081000.0</v>
+      </c>
+    </row>
+    <row r="3079">
+      <c r="A3079" t="inlineStr">
+        <is>
+          <t>2025-12-27</t>
+        </is>
+      </c>
+      <c r="B3079" t="n">
+        <v>199000.0</v>
+      </c>
+      <c r="C3079" t="n">
+        <v>-0.07441860465116279</v>
+      </c>
+      <c r="D3079"/>
+      <c r="E3079"/>
+      <c r="F3079"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
